--- a/Ferramenta-de-Controle-Investimentos/trabalho de excel.xlsx
+++ b/Ferramenta-de-Controle-Investimentos/trabalho de excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/563974f9b884c97d/Documentos/PASTA-EXCEL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/563974f9b884c97d/Documentos/Projeto-Excel/github-Investimentos/Ferramenta-de-Controle-Investimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB37AD1F-DF45-4651-9DA0-5698FA76AE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBA164BC-A390-425D-8644-4F0C5923AD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ACE8411C-27F8-43EA-B78F-2959F0842E67}"/>
   </bookViews>
@@ -159,7 +159,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -230,8 +230,22 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="2"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,12 +277,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -285,8 +293,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -386,36 +406,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="hair">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -678,6 +668,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -685,84 +783,15 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -770,81 +799,229 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -855,6 +1032,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -903,17 +1085,40 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
@@ -927,17 +1132,40 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
@@ -951,17 +1179,40 @@
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
@@ -975,17 +1226,40 @@
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
@@ -999,17 +1273,40 @@
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
@@ -1023,17 +1320,40 @@
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
@@ -1045,30 +1365,11 @@
           </c:dPt>
           <c:dLbls>
             <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1077,9 +1378,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1101,9 +1404,9 @@
               <c:spPr>
                 <a:ln w="9525">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
                     </a:schemeClr>
                   </a:solidFill>
                 </a:ln>
@@ -1147,22 +1450,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.32</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,15 +1497,10 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1215,9 +1513,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1237,30 +1534,25 @@
     <a:gradFill flip="none" rotWithShape="1">
       <a:gsLst>
         <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
         </a:gs>
         <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
       </a:path>
       <a:tileRect/>
     </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1323,41 +1615,39 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
     <cs:lnRef idx="0"/>
@@ -1370,180 +1660,113 @@
       <a:gradFill flip="none" rotWithShape="1">
         <a:gsLst>
           <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
           </a:gs>
           <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
         <a:tileRect/>
       </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
     </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -1551,10 +1774,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1570,17 +1793,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1592,20 +1814,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1616,14 +1838,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -1635,14 +1857,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1654,7 +1875,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1662,28 +1883,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1693,28 +1902,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1723,14 +1920,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -1742,14 +1939,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1760,19 +1957,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -1780,7 +1968,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -1788,7 +1976,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1796,17 +1984,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1819,14 +2006,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1838,12 +2025,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1852,7 +2046,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -1867,9 +2061,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1879,7 +2072,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1887,9 +2080,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1900,16 +2093,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1917,7 +2104,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1928,15 +2115,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:colOff>1476375</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1961,25 +2148,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1000126</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>90859</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagem 6">
+        <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D712AF9-FF89-E452-C92E-BFBC2E143D8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF8E975-2E55-1F60-E068-FADE2B538DA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,24 +2175,30 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238126" y="95250"/>
-          <a:ext cx="6496050" cy="2014909"/>
+          <a:off x="1476376" y="19050"/>
+          <a:ext cx="4733924" cy="2228850"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst>
-          <a:softEdge rad="112500"/>
+          <a:softEdge rad="63500"/>
         </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
@@ -2331,340 +2524,859 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC32B98-15D9-48BB-A280-FFFB8D8B8645}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:XFD67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="2" width="27.8984375" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.8984375" customWidth="1"/>
-    <col min="5" max="5" width="4.796875" customWidth="1"/>
-    <col min="6" max="6" width="2.8984375" customWidth="1"/>
-    <col min="7" max="7" width="3.59765625" customWidth="1"/>
-    <col min="8" max="8" width="3.296875" customWidth="1"/>
+    <col min="1" max="1" width="5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="27.796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="2.09765625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="4.796875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" hidden="1" customWidth="1"/>
     <col min="9" max="11" width="8.796875" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" hidden="1"/>
+    <col min="12" max="16382" width="8.796875" hidden="1"/>
+    <col min="16383" max="16383" width="3" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="4.796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="48" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="12"/>
+      <c r="B11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-    </row>
-    <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="38" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="5">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20">
         <v>2000</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="40" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12"/>
+      <c r="B13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="6">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="42" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="12"/>
+      <c r="B14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="7">
+      <c r="C14" s="25"/>
+      <c r="D14" s="26">
         <f>D12*30%</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="51" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="12"/>
+      <c r="B16" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-    </row>
-    <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="44" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8 16384:16384" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
+      <c r="B17" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="8">
+      <c r="C17" s="32"/>
+      <c r="D17" s="33">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="46" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8 16384:16384" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
+      <c r="B18" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="9">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B19" s="46" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8 16384:16384" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="B19" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="10">
+      <c r="C19" s="35"/>
+      <c r="D19" s="37">
         <v>1.0789999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B20" s="56" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8 16384:16384" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="11">
+      <c r="C20" s="39"/>
+      <c r="D20" s="40">
         <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
         <v>16755.382799697527</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="58" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8 16384:16384" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="12"/>
+      <c r="B21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="12">
+      <c r="C21" s="42"/>
+      <c r="D21" s="43">
         <f>patrimonio*rendimento_carteira</f>
         <v>100.53229679818516</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="54" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8 16384:16384" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8 16384:16384" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="12"/>
+      <c r="B23" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="45"/>
+      <c r="D23" s="46" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8 16384:16384" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="13">
         <v>2</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="48">
         <f>FV($D$19,$A24*12,$D$17*-1)</f>
         <v>5445.5254595290435</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="49">
         <f>C24*rendimento_carteira</f>
         <v>32.673152757174265</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8 16384:16384" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="13">
         <v>5</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="51">
         <f>FV($D$19,$A25*12,$D$17*-1)</f>
         <v>16755.382799697527</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="52">
         <f>C25*rendimento_carteira</f>
         <v>100.53229679818516</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8 16384:16384" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="13">
         <v>10</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="51">
         <f>FV($D$19,$A26*12,$D$17*-1)</f>
         <v>48656.842506034438</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="52">
         <f>C26*rendimento_carteira</f>
         <v>291.94105503620665</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8 16384:16384" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="13">
         <v>20</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="51">
         <f>FV($D$19,$A27*12,$D$17*-1)</f>
         <v>225039.68001941612</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="52">
         <f>C27*rendimento_carteira</f>
         <v>1350.2380801164968</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="XFD27" s="65"/>
+    </row>
+    <row r="28" spans="1:8 16384:16384" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="13">
         <v>30</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="56">
         <f>FV($D$19,$A28*12,$D$17*-1)</f>
         <v>864433.93100094295</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="57">
         <f>C28*rendimento_carteira</f>
         <v>5186.6035860056581</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="22" t="s">
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="XFD28" s="65"/>
+    </row>
+    <row r="29" spans="1:8 16384:16384" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="XFD29" s="65"/>
+    </row>
+    <row r="30" spans="1:8 16384:16384" s="65" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+    </row>
+    <row r="31" spans="1:8 16384:16384" s="65" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+    </row>
+    <row r="32" spans="1:8 16384:16384" s="65" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="22"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="36" t="s">
+      <c r="C32" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="76"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+    </row>
+    <row r="33" spans="1:8 16384:16384" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="67">
         <f>aporte</f>
         <v>200</v>
       </c>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="25" t="s">
+      <c r="D33" s="77"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+    </row>
+    <row r="34" spans="1:8 16384:16384" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+    </row>
+    <row r="35" spans="1:8 16384:16384" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="79" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+    </row>
+    <row r="36" spans="1:8 16384:16384" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="70">
         <f>VLOOKUP($C$32&amp;"-"&amp;B36,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.32</v>
-      </c>
-      <c r="D36" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="D36" s="80">
         <f>C36*$C$33</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+    </row>
+    <row r="37" spans="1:8 16384:16384" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="70">
         <f>VLOOKUP($C$32&amp;"-"&amp;B37,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.35</v>
-      </c>
-      <c r="D37" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="80">
         <f t="shared" ref="D37:D41" si="0">C37*$C$33</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+    </row>
+    <row r="38" spans="1:8 16384:16384" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="70">
         <f>VLOOKUP($C$32&amp;"-"&amp;B38,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.08</v>
-      </c>
-      <c r="D38" s="23">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="35">
-        <f>VLOOKUP($C$32&amp;"-"&amp;B39,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="D39" s="23">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="35">
-        <f>VLOOKUP($C$32&amp;"-"&amp;B40,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D38" s="80">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="35">
-        <f>VLOOKUP($C$32&amp;"-"&amp;B41,Planilha2!$A:$D,4,FALSE)</f>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+    </row>
+    <row r="39" spans="1:8 16384:16384" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="70">
+        <f>VLOOKUP($C$32&amp;"-"&amp;B39,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D39" s="80">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="28">
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+    </row>
+    <row r="40" spans="1:8 16384:16384" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="70">
+        <f>VLOOKUP($C$32&amp;"-"&amp;B40,Planilha2!$A:$D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+    </row>
+    <row r="41" spans="1:8 16384:16384" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="70">
+        <f>VLOOKUP($C$32&amp;"-"&amp;B41,Planilha2!$A:$D,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+    </row>
+    <row r="42" spans="1:8 16384:16384" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="81">
         <f>SUM(D36:D41)</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+    </row>
+    <row r="43" spans="1:8 16384:16384" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+    </row>
+    <row r="44" spans="1:8 16384:16384" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="XFD44" s="65"/>
+    </row>
+    <row r="45" spans="1:8 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="XFD45" s="65"/>
+    </row>
+    <row r="46" spans="1:8 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:8 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="12"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="12"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="12"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="12"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="12"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="12"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="12"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="12"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="12"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="12"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="12"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="12"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="12"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="12"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="12"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="12"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B11:D11"/>
@@ -2706,16 +3418,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2730,7 +3442,7 @@
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.3</v>
       </c>
       <c r="H3" t="s">
@@ -2748,13 +3460,13 @@
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0.5</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="9">
         <f>VLOOKUP(G4,$A:$D,4,FALSE)</f>
         <v>0.35</v>
       </c>
@@ -2770,7 +3482,7 @@
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.1</v>
       </c>
     </row>
@@ -2785,7 +3497,7 @@
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0.1</v>
       </c>
     </row>
@@ -2800,22 +3512,22 @@
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="str">
+      <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HOTELARIAS</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2830,7 +3542,7 @@
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>0.32</v>
       </c>
     </row>
@@ -2845,7 +3557,7 @@
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>0.35</v>
       </c>
     </row>
@@ -2860,7 +3572,7 @@
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.08</v>
       </c>
     </row>
@@ -2875,7 +3587,7 @@
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>0.05</v>
       </c>
     </row>
@@ -2890,22 +3602,22 @@
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="29" t="str">
+      <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HOTELARIAS</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="6">
         <v>0.1</v>
       </c>
     </row>
@@ -2920,7 +3632,7 @@
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>0.5</v>
       </c>
     </row>
@@ -2935,7 +3647,7 @@
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>0.1</v>
       </c>
     </row>
@@ -2950,7 +3662,7 @@
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>0.05</v>
       </c>
     </row>
@@ -2965,7 +3677,7 @@
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>0.05</v>
       </c>
     </row>
@@ -2980,7 +3692,7 @@
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>0.2</v>
       </c>
     </row>
@@ -2995,7 +3707,7 @@
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>0.1</v>
       </c>
     </row>
